--- a/Result/checksun/貿易百貨.xlsx
+++ b/Result/checksun/貿易百貨.xlsx
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>-1477747</v>
+        <v>-1587478</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>-406777</v>
+        <v>-1493445</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>-193066</v>
+        <v>-438792</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>33930</v>
+        <v>-150026</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>-807870</v>
+        <v>-625426</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>-745410</v>
+        <v>-278351</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>-143661</v>
+        <v>418152</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>17.20</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>-278798</v>
+        <v>441679</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>499684</v>
+        <v>684145</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>-40295</v>
+        <v>510361</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>461242</v>
+        <v>1294979</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>-32625</v>
+        <v>1061649</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>8102548</v>
+        <v>16643156</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>7282160</v>
+        <v>14715461</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>8763011</v>
+        <v>6964993</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>8513251</v>
+        <v>1490961</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>1716604</v>
+        <v>998422</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>-5207328</v>
+        <v>-5174564</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>27357</v>
+        <v>-9882123</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>5716697</v>
+        <v>-7946748</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>3409310</v>
+        <v>-7514620</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>-7049647</v>
+        <v>-18521005</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>-6434879</v>
+        <v>-15887967</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>-3376546</v>
+        <v>-6182007</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>3238550</v>
+        <v>4883349</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>3770831</v>
+        <v>6677580</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>3182143</v>
+        <v>-9022701</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>448482</v>
+        <v>-12511014</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>-5075610</v>
+        <v>-17610814</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>-9505087</v>
+        <v>-20930808</v>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>1196317</v>
+        <v>-19916212</v>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>7982359</v>
+        <v>-13304980</v>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>-2699757</v>
+        <v>-17377094</v>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>-14155813</v>
+        <v>-14948360</v>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>-20517563</v>
+        <v>-14587175</v>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>-8725964</v>
+        <v>791859</v>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
@@ -7225,11 +7225,11 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -7256,31 +7256,31 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>-100</v>
+        <v>-65</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -7437,31 +7437,31 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>-1.25</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>-100</v>
+        <v>-65</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -7583,11 +7583,11 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>50.1</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>100</v>
+        <v>-2.24</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -7614,31 +7614,31 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>-1.17</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>-1.26</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>-100</v>
+        <v>-65</v>
       </c>
       <c r="V40" t="n">
         <v>18</v>
@@ -7762,11 +7762,11 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>50.1</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>100</v>
+        <v>-2.24</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -7793,22 +7793,22 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>-1.17</t>
+          <t>-1.07</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
@@ -7817,7 +7817,7 @@
         </is>
       </c>
       <c r="U41" t="n">
-        <v>-100</v>
+        <v>-65</v>
       </c>
       <c r="V41" t="n">
         <v>-8</v>
@@ -7974,17 +7974,17 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -7994,11 +7994,11 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>-1.31</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>-100</v>
+        <v>-65</v>
       </c>
       <c r="V42" t="n">
         <v>-31</v>
@@ -8120,11 +8120,11 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>48.9</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>100</v>
+        <v>0.2</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -8151,17 +8151,17 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -8171,11 +8171,11 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>-1.38</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>-100</v>
+        <v>-65</v>
       </c>
       <c r="V43" t="n">
         <v>-46</v>
@@ -8337,26 +8337,26 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>-1.35</t>
+          <t>-1.40</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>-100</v>
+        <v>-65</v>
       </c>
       <c r="V44" t="n">
         <v>-65</v>
@@ -8375,7 +8375,7 @@
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>-8825648</v>
+        <v>-5664532</v>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
@@ -8518,26 +8518,26 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>-1.26</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>-1.37</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>-100</v>
+        <v>-65</v>
       </c>
       <c r="V45" t="n">
         <v>-80</v>
@@ -8556,7 +8556,7 @@
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>-8409518</v>
+        <v>-8322037</v>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
@@ -8699,26 +8699,26 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>-1.26</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>-1.47</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>-100</v>
+        <v>-65</v>
       </c>
       <c r="V46" t="n">
         <v>-60</v>
@@ -8737,7 +8737,7 @@
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>-3121875</v>
+        <v>-3236951</v>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="H47" t="n">
         <v>50.6</v>
@@ -8880,29 +8880,29 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>-1.37</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>-1.44</t>
+          <t>-1.51</t>
         </is>
       </c>
       <c r="U47" t="n">
-        <v>-100</v>
+        <v>-65</v>
       </c>
       <c r="V47" t="n">
-        <v>-48</v>
+        <v>-26</v>
       </c>
       <c r="W47" t="n">
         <v>-44</v>
@@ -8918,7 +8918,7 @@
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>2627535</v>
+        <v>2798761</v>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.96</v>
+        <v>0.79</v>
       </c>
       <c r="H48" t="n">
         <v>50.4</v>
@@ -9056,34 +9056,34 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>-1.45</t>
+          <t>-1.50</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-1.55</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>-100</v>
+        <v>-65</v>
       </c>
       <c r="V48" t="n">
-        <v>-14</v>
+        <v>8</v>
       </c>
       <c r="W48" t="n">
         <v>-50</v>
@@ -9099,7 +9099,7 @@
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>376649</v>
+        <v>15340049</v>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="H49" t="n">
         <v>49.7</v>
@@ -9237,34 +9237,34 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
+          <t>-1.62</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
           <t>-1.56</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>-1.46</t>
-        </is>
-      </c>
       <c r="U49" t="n">
-        <v>-100</v>
+        <v>-65</v>
       </c>
       <c r="V49" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="W49" t="n">
         <v>-53</v>
@@ -9280,7 +9280,7 @@
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>-2140820</v>
+        <v>17561677</v>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>-1474781</v>
+        <v>-706055</v>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>393015</v>
+        <v>3730059</v>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
@@ -9819,7 +9819,7 @@
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>-1664295</v>
+        <v>6299545</v>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>-1262470</v>
+        <v>2391808</v>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         </is>
       </c>
       <c r="AB54" t="n">
-        <v>-58052</v>
+        <v>-10025516</v>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         </is>
       </c>
       <c r="AB55" t="n">
-        <v>-585337</v>
+        <v>20791643</v>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         </is>
       </c>
       <c r="AB56" t="n">
-        <v>2031196</v>
+        <v>8636565</v>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         </is>
       </c>
       <c r="AB57" t="n">
-        <v>3395096</v>
+        <v>19169828</v>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         </is>
       </c>
       <c r="AB58" t="n">
-        <v>8549177</v>
+        <v>26026623</v>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         </is>
       </c>
       <c r="AB59" t="n">
-        <v>1623082</v>
+        <v>21357471</v>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="AB60" t="n">
-        <v>-13362560</v>
+        <v>20782934</v>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         </is>
       </c>
       <c r="AB61" t="n">
-        <v>12827803</v>
+        <v>23388553</v>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
@@ -11571,22 +11571,22 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>121.17</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="U62" t="n">
@@ -11601,15 +11601,23 @@
       <c r="X62" t="b">
         <v>0</v>
       </c>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA62" t="inlineStr">
         <is>
           <t>-7</t>
         </is>
       </c>
       <c r="AB62" t="n">
-        <v>244655</v>
+        <v>1042929</v>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
@@ -11752,22 +11760,22 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="U63" t="n">
@@ -11782,15 +11790,23 @@
       <c r="X63" t="b">
         <v>0</v>
       </c>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA63" t="inlineStr">
         <is>
           <t>-14</t>
         </is>
       </c>
       <c r="AB63" t="n">
-        <v>806614</v>
+        <v>1327738</v>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
@@ -11933,22 +11949,22 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="U64" t="n">
@@ -11963,15 +11979,23 @@
       <c r="X64" t="b">
         <v>0</v>
       </c>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA64" t="inlineStr">
         <is>
           <t>-2</t>
         </is>
       </c>
       <c r="AB64" t="n">
-        <v>706375</v>
+        <v>1601599</v>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
@@ -12075,7 +12099,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="H65" t="n">
         <v>39.4</v>
@@ -12114,22 +12138,22 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="U65" t="n">
@@ -12144,15 +12168,23 @@
       <c r="X65" t="b">
         <v>0</v>
       </c>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA65" t="inlineStr">
         <is>
           <t>-12</t>
         </is>
       </c>
       <c r="AB65" t="n">
-        <v>703037</v>
+        <v>1395790</v>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
@@ -12256,7 +12288,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="H66" t="n">
         <v>38.8</v>
@@ -12295,22 +12327,22 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="U66" t="n">
@@ -12325,15 +12357,23 @@
       <c r="X66" t="b">
         <v>0</v>
       </c>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA66" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
       <c r="AB66" t="n">
-        <v>21795</v>
+        <v>1270347</v>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
@@ -12437,7 +12477,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H67" t="n">
         <v>38.5</v>
@@ -12476,22 +12516,22 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="U67" t="n">
@@ -12506,15 +12546,23 @@
       <c r="X67" t="b">
         <v>0</v>
       </c>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA67" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
       <c r="AB67" t="n">
-        <v>-178075</v>
+        <v>1308288</v>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
@@ -12618,7 +12666,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.14</v>
+        <v>0.99</v>
       </c>
       <c r="H68" t="n">
         <v>38.1</v>
@@ -12657,29 +12705,29 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="U68" t="n">
         <v>-90</v>
       </c>
       <c r="V68" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
       <c r="W68" t="n">
         <v>37</v>
@@ -12687,15 +12735,23 @@
       <c r="X68" t="b">
         <v>0</v>
       </c>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA68" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
       <c r="AB68" t="n">
-        <v>95237</v>
+        <v>884974</v>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
@@ -12799,7 +12855,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>0.99</v>
       </c>
       <c r="H69" t="n">
         <v>38.9</v>
@@ -12833,34 +12889,34 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="U69" t="n">
         <v>-90</v>
       </c>
       <c r="V69" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="W69" t="n">
         <v>17</v>
@@ -12868,15 +12924,23 @@
       <c r="X69" t="b">
         <v>0</v>
       </c>
-      <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA69" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
       <c r="AB69" t="n">
-        <v>499329</v>
+        <v>1131828</v>
       </c>
       <c r="AC69" t="inlineStr">
         <is>
@@ -12980,7 +13044,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="H70" t="n">
         <v>38.9</v>
@@ -13014,50 +13078,58 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="U70" t="n">
         <v>-90</v>
       </c>
       <c r="V70" t="n">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="W70" t="n">
         <v>27</v>
       </c>
       <c r="X70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
       <c r="AA70" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
       <c r="AB70" t="n">
-        <v>170899</v>
+        <v>1064560</v>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
@@ -13161,7 +13233,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.68</v>
+        <v>0.96</v>
       </c>
       <c r="H71" t="n">
         <v>38.35</v>
@@ -13195,40 +13267,40 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="U71" t="n">
         <v>-90</v>
       </c>
       <c r="V71" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="W71" t="n">
         <v>-50</v>
       </c>
       <c r="X71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
@@ -13238,7 +13310,7 @@
         </is>
       </c>
       <c r="AB71" t="n">
-        <v>-304884</v>
+        <v>338686</v>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
@@ -13342,7 +13414,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.88</v>
+        <v>1.02</v>
       </c>
       <c r="H72" t="n">
         <v>38.25</v>
@@ -13376,40 +13448,40 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="U72" t="n">
         <v>-90</v>
       </c>
       <c r="V72" t="n">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="W72" t="n">
         <v>-57</v>
       </c>
       <c r="X72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
@@ -13419,7 +13491,7 @@
         </is>
       </c>
       <c r="AB72" t="n">
-        <v>-153177</v>
+        <v>2670422</v>
       </c>
       <c r="AC72" t="inlineStr">
         <is>
@@ -13524,11 +13596,11 @@
         <v>0.97</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>100</v>
+        <v>3.8</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -13542,7 +13614,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="N73" t="n">
@@ -13555,27 +13627,27 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.50</t>
         </is>
       </c>
       <c r="U73" t="n">
@@ -13598,7 +13670,7 @@
         </is>
       </c>
       <c r="AB73" t="n">
-        <v>413064</v>
+        <v>3431375</v>
       </c>
       <c r="AC73" t="inlineStr">
         <is>
@@ -13746,7 +13818,7 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
@@ -13787,7 +13859,7 @@
         </is>
       </c>
       <c r="AB74" t="n">
-        <v>4522214</v>
+        <v>13495143</v>
       </c>
       <c r="AC74" t="inlineStr">
         <is>
@@ -13933,7 +14005,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>20.72</t>
+          <t>20.97</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
@@ -13974,7 +14046,7 @@
         </is>
       </c>
       <c r="AB75" t="n">
-        <v>9723863</v>
+        <v>20285536</v>
       </c>
       <c r="AC75" t="inlineStr">
         <is>
@@ -14161,7 +14233,7 @@
         </is>
       </c>
       <c r="AB76" t="n">
-        <v>7049095</v>
+        <v>17293567</v>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
@@ -14312,7 +14384,7 @@
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
@@ -14348,7 +14420,7 @@
         </is>
       </c>
       <c r="AB77" t="n">
-        <v>2797120</v>
+        <v>13229726</v>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
@@ -14535,7 +14607,7 @@
         </is>
       </c>
       <c r="AB78" t="n">
-        <v>1501648</v>
+        <v>10952987</v>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
@@ -14686,7 +14758,7 @@
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
@@ -14722,7 +14794,7 @@
         </is>
       </c>
       <c r="AB79" t="n">
-        <v>-385302</v>
+        <v>10373088</v>
       </c>
       <c r="AC79" t="inlineStr">
         <is>
@@ -14909,7 +14981,7 @@
         </is>
       </c>
       <c r="AB80" t="n">
-        <v>6175809</v>
+        <v>10351846</v>
       </c>
       <c r="AC80" t="inlineStr">
         <is>
@@ -15096,7 +15168,7 @@
         </is>
       </c>
       <c r="AB81" t="n">
-        <v>9060025</v>
+        <v>9120257</v>
       </c>
       <c r="AC81" t="inlineStr">
         <is>
@@ -15283,7 +15355,7 @@
         </is>
       </c>
       <c r="AB82" t="n">
-        <v>10629774</v>
+        <v>10767546</v>
       </c>
       <c r="AC82" t="inlineStr">
         <is>
@@ -15434,7 +15506,7 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
@@ -15462,7 +15534,7 @@
         </is>
       </c>
       <c r="AB83" t="n">
-        <v>4256797</v>
+        <v>4209655</v>
       </c>
       <c r="AC83" t="inlineStr">
         <is>
@@ -15641,7 +15713,7 @@
         </is>
       </c>
       <c r="AB84" t="n">
-        <v>391314</v>
+        <v>487616</v>
       </c>
       <c r="AC84" t="inlineStr">
         <is>
@@ -15797,7 +15869,7 @@
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>-1.19</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="U85" t="n">
@@ -15820,7 +15892,7 @@
         </is>
       </c>
       <c r="AB85" t="n">
-        <v>128616</v>
+        <v>-218308</v>
       </c>
       <c r="AC85" t="inlineStr">
         <is>
@@ -16007,7 +16079,7 @@
         </is>
       </c>
       <c r="AB86" t="n">
-        <v>16647399</v>
+        <v>23000085</v>
       </c>
       <c r="AC86" t="inlineStr">
         <is>
@@ -16196,7 +16268,7 @@
         </is>
       </c>
       <c r="AB87" t="n">
-        <v>13925640</v>
+        <v>13909370</v>
       </c>
       <c r="AC87" t="inlineStr">
         <is>
@@ -16385,7 +16457,7 @@
         </is>
       </c>
       <c r="AB88" t="n">
-        <v>10001105</v>
+        <v>2888258</v>
       </c>
       <c r="AC88" t="inlineStr">
         <is>
@@ -16574,7 +16646,7 @@
         </is>
       </c>
       <c r="AB89" t="n">
-        <v>9228230</v>
+        <v>1632677</v>
       </c>
       <c r="AC89" t="inlineStr">
         <is>
@@ -16763,7 +16835,7 @@
         </is>
       </c>
       <c r="AB90" t="n">
-        <v>2732904</v>
+        <v>2424443</v>
       </c>
       <c r="AC90" t="inlineStr">
         <is>
@@ -16952,7 +17024,7 @@
         </is>
       </c>
       <c r="AB91" t="n">
-        <v>-6865394</v>
+        <v>107287</v>
       </c>
       <c r="AC91" t="inlineStr">
         <is>
@@ -17141,7 +17213,7 @@
         </is>
       </c>
       <c r="AB92" t="n">
-        <v>-2875544</v>
+        <v>-5931339</v>
       </c>
       <c r="AC92" t="inlineStr">
         <is>
@@ -17330,7 +17402,7 @@
         </is>
       </c>
       <c r="AB93" t="n">
-        <v>-2749174</v>
+        <v>613202</v>
       </c>
       <c r="AC93" t="inlineStr">
         <is>
@@ -17519,7 +17591,7 @@
         </is>
       </c>
       <c r="AB94" t="n">
-        <v>-247453</v>
+        <v>2702089</v>
       </c>
       <c r="AC94" t="inlineStr">
         <is>
@@ -17700,7 +17772,7 @@
         </is>
       </c>
       <c r="AB95" t="n">
-        <v>-4720009</v>
+        <v>-8407012</v>
       </c>
       <c r="AC95" t="inlineStr">
         <is>
@@ -17881,7 +17953,7 @@
         </is>
       </c>
       <c r="AB96" t="n">
-        <v>2440713</v>
+        <v>2124754</v>
       </c>
       <c r="AC96" t="inlineStr">
         <is>
@@ -18062,7 +18134,7 @@
         </is>
       </c>
       <c r="AB97" t="n">
-        <v>7220134</v>
+        <v>10937901</v>
       </c>
       <c r="AC97" t="inlineStr">
         <is>
@@ -18243,7 +18315,7 @@
         </is>
       </c>
       <c r="AB98" t="n">
-        <v>107636682</v>
+        <v>-180709119</v>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
@@ -18424,7 +18496,7 @@
         </is>
       </c>
       <c r="AB99" t="n">
-        <v>302199671</v>
+        <v>-171510359</v>
       </c>
       <c r="AC99" t="inlineStr">
         <is>
@@ -18605,7 +18677,7 @@
         </is>
       </c>
       <c r="AB100" t="n">
-        <v>66233312</v>
+        <v>-240704881</v>
       </c>
       <c r="AC100" t="inlineStr">
         <is>
@@ -18786,7 +18858,7 @@
         </is>
       </c>
       <c r="AB101" t="n">
-        <v>104528492</v>
+        <v>-368867796</v>
       </c>
       <c r="AC101" t="inlineStr">
         <is>
@@ -18967,7 +19039,7 @@
         </is>
       </c>
       <c r="AB102" t="n">
-        <v>-337683216</v>
+        <v>-393600342</v>
       </c>
       <c r="AC102" t="inlineStr">
         <is>
@@ -19148,7 +19220,7 @@
         </is>
       </c>
       <c r="AB103" t="n">
-        <v>-399150311</v>
+        <v>-376426454</v>
       </c>
       <c r="AC103" t="inlineStr">
         <is>
@@ -19329,7 +19401,7 @@
         </is>
       </c>
       <c r="AB104" t="n">
-        <v>-392874293</v>
+        <v>-633376175</v>
       </c>
       <c r="AC104" t="inlineStr">
         <is>
@@ -19510,7 +19582,7 @@
         </is>
       </c>
       <c r="AB105" t="n">
-        <v>-136026814</v>
+        <v>-176686954</v>
       </c>
       <c r="AC105" t="inlineStr">
         <is>
@@ -19691,7 +19763,7 @@
         </is>
       </c>
       <c r="AB106" t="n">
-        <v>92212118</v>
+        <v>-58050531</v>
       </c>
       <c r="AC106" t="inlineStr">
         <is>
@@ -19872,7 +19944,7 @@
         </is>
       </c>
       <c r="AB107" t="n">
-        <v>-80521995</v>
+        <v>-282536275</v>
       </c>
       <c r="AC107" t="inlineStr">
         <is>
@@ -20053,7 +20125,7 @@
         </is>
       </c>
       <c r="AB108" t="n">
-        <v>80109688</v>
+        <v>-72452289</v>
       </c>
       <c r="AC108" t="inlineStr">
         <is>
@@ -20234,7 +20306,7 @@
         </is>
       </c>
       <c r="AB109" t="n">
-        <v>-69488261</v>
+        <v>-276928898</v>
       </c>
       <c r="AC109" t="inlineStr">
         <is>
@@ -20415,7 +20487,7 @@
         </is>
       </c>
       <c r="AB110" t="n">
-        <v>13651337</v>
+        <v>286105963</v>
       </c>
       <c r="AC110" t="inlineStr">
         <is>
@@ -20594,7 +20666,7 @@
         </is>
       </c>
       <c r="AB111" t="n">
-        <v>16527327</v>
+        <v>335758416</v>
       </c>
       <c r="AC111" t="inlineStr">
         <is>
@@ -20773,7 +20845,7 @@
         </is>
       </c>
       <c r="AB112" t="n">
-        <v>-37913324</v>
+        <v>309955500</v>
       </c>
       <c r="AC112" t="inlineStr">
         <is>
@@ -20952,7 +21024,7 @@
         </is>
       </c>
       <c r="AB113" t="n">
-        <v>-150395836</v>
+        <v>294120837</v>
       </c>
       <c r="AC113" t="inlineStr">
         <is>
@@ -21131,7 +21203,7 @@
         </is>
       </c>
       <c r="AB114" t="n">
-        <v>186625423</v>
+        <v>340928568</v>
       </c>
       <c r="AC114" t="inlineStr">
         <is>
@@ -21310,7 +21382,7 @@
         </is>
       </c>
       <c r="AB115" t="n">
-        <v>322323917</v>
+        <v>369308349</v>
       </c>
       <c r="AC115" t="inlineStr">
         <is>
@@ -21489,7 +21561,7 @@
         </is>
       </c>
       <c r="AB116" t="n">
-        <v>422850462</v>
+        <v>445755644</v>
       </c>
       <c r="AC116" t="inlineStr">
         <is>
@@ -21668,7 +21740,7 @@
         </is>
       </c>
       <c r="AB117" t="n">
-        <v>132605666</v>
+        <v>129403239</v>
       </c>
       <c r="AC117" t="inlineStr">
         <is>
@@ -21847,7 +21919,7 @@
         </is>
       </c>
       <c r="AB118" t="n">
-        <v>25544907</v>
+        <v>39325071</v>
       </c>
       <c r="AC118" t="inlineStr">
         <is>
@@ -22026,7 +22098,7 @@
         </is>
       </c>
       <c r="AB119" t="n">
-        <v>21666211</v>
+        <v>4326296</v>
       </c>
       <c r="AC119" t="inlineStr">
         <is>
@@ -22205,7 +22277,7 @@
         </is>
       </c>
       <c r="AB120" t="n">
-        <v>21697479</v>
+        <v>3404175</v>
       </c>
       <c r="AC120" t="inlineStr">
         <is>
@@ -22384,7 +22456,7 @@
         </is>
       </c>
       <c r="AB121" t="n">
-        <v>21439525</v>
+        <v>34436551</v>
       </c>
       <c r="AC121" t="inlineStr">
         <is>
@@ -22563,7 +22635,7 @@
         </is>
       </c>
       <c r="AB122" t="n">
-        <v>-267763555</v>
+        <v>565335</v>
       </c>
       <c r="AC122" t="inlineStr">
         <is>
@@ -22744,7 +22816,7 @@
         </is>
       </c>
       <c r="AB123" t="n">
-        <v>323247948</v>
+        <v>605461590</v>
       </c>
       <c r="AC123" t="inlineStr">
         <is>
@@ -22925,7 +22997,7 @@
         </is>
       </c>
       <c r="AB124" t="n">
-        <v>373307817</v>
+        <v>692704296</v>
       </c>
       <c r="AC124" t="inlineStr">
         <is>
@@ -23106,7 +23178,7 @@
         </is>
       </c>
       <c r="AB125" t="n">
-        <v>292442145</v>
+        <v>583120479</v>
       </c>
       <c r="AC125" t="inlineStr">
         <is>
@@ -23287,7 +23359,7 @@
         </is>
       </c>
       <c r="AB126" t="n">
-        <v>-401520829</v>
+        <v>618709661</v>
       </c>
       <c r="AC126" t="inlineStr">
         <is>
@@ -23468,7 +23540,7 @@
         </is>
       </c>
       <c r="AB127" t="n">
-        <v>67213531</v>
+        <v>541931030</v>
       </c>
       <c r="AC127" t="inlineStr">
         <is>
@@ -23649,7 +23721,7 @@
         </is>
       </c>
       <c r="AB128" t="n">
-        <v>-24113255</v>
+        <v>13198271</v>
       </c>
       <c r="AC128" t="inlineStr">
         <is>
@@ -23830,7 +23902,7 @@
         </is>
       </c>
       <c r="AB129" t="n">
-        <v>683734471</v>
+        <v>708762762</v>
       </c>
       <c r="AC129" t="inlineStr">
         <is>
@@ -24011,7 +24083,7 @@
         </is>
       </c>
       <c r="AB130" t="n">
-        <v>252182948</v>
+        <v>35843820</v>
       </c>
       <c r="AC130" t="inlineStr">
         <is>
@@ -24192,7 +24264,7 @@
         </is>
       </c>
       <c r="AB131" t="n">
-        <v>314791589</v>
+        <v>387718807</v>
       </c>
       <c r="AC131" t="inlineStr">
         <is>
@@ -24373,7 +24445,7 @@
         </is>
       </c>
       <c r="AB132" t="n">
-        <v>336496019</v>
+        <v>585519730</v>
       </c>
       <c r="AC132" t="inlineStr">
         <is>
@@ -24554,7 +24626,7 @@
         </is>
       </c>
       <c r="AB133" t="n">
-        <v>222534551</v>
+        <v>-58881480</v>
       </c>
       <c r="AC133" t="inlineStr">
         <is>
@@ -24743,7 +24815,7 @@
         </is>
       </c>
       <c r="AB134" t="n">
-        <v>-324608</v>
+        <v>71289</v>
       </c>
       <c r="AC134" t="inlineStr">
         <is>
@@ -24930,7 +25002,7 @@
         </is>
       </c>
       <c r="AB135" t="n">
-        <v>-127195</v>
+        <v>267656</v>
       </c>
       <c r="AC135" t="inlineStr">
         <is>
@@ -25117,7 +25189,7 @@
         </is>
       </c>
       <c r="AB136" t="n">
-        <v>-121304</v>
+        <v>143294</v>
       </c>
       <c r="AC136" t="inlineStr">
         <is>
@@ -25304,7 +25376,7 @@
         </is>
       </c>
       <c r="AB137" t="n">
-        <v>96196</v>
+        <v>539865</v>
       </c>
       <c r="AC137" t="inlineStr">
         <is>
@@ -25491,7 +25563,7 @@
         </is>
       </c>
       <c r="AB138" t="n">
-        <v>-69657</v>
+        <v>491014</v>
       </c>
       <c r="AC138" t="inlineStr">
         <is>
@@ -25678,7 +25750,7 @@
         </is>
       </c>
       <c r="AB139" t="n">
-        <v>-217377</v>
+        <v>338276</v>
       </c>
       <c r="AC139" t="inlineStr">
         <is>
@@ -25865,7 +25937,7 @@
         </is>
       </c>
       <c r="AB140" t="n">
-        <v>299701</v>
+        <v>567383</v>
       </c>
       <c r="AC140" t="inlineStr">
         <is>
@@ -26052,7 +26124,7 @@
         </is>
       </c>
       <c r="AB141" t="n">
-        <v>464508</v>
+        <v>563350</v>
       </c>
       <c r="AC141" t="inlineStr">
         <is>
@@ -26231,7 +26303,7 @@
         </is>
       </c>
       <c r="AB142" t="n">
-        <v>481975</v>
+        <v>521076</v>
       </c>
       <c r="AC142" t="inlineStr">
         <is>
@@ -26410,7 +26482,7 @@
         </is>
       </c>
       <c r="AB143" t="n">
-        <v>143968</v>
+        <v>-11008</v>
       </c>
       <c r="AC143" t="inlineStr">
         <is>
@@ -26589,7 +26661,7 @@
         </is>
       </c>
       <c r="AB144" t="n">
-        <v>96163</v>
+        <v>-368048</v>
       </c>
       <c r="AC144" t="inlineStr">
         <is>
@@ -26768,7 +26840,7 @@
         </is>
       </c>
       <c r="AB145" t="n">
-        <v>73678</v>
+        <v>-258044</v>
       </c>
       <c r="AC145" t="inlineStr">
         <is>
@@ -26947,7 +27019,7 @@
         </is>
       </c>
       <c r="AB146" t="n">
-        <v>777565</v>
+        <v>124260</v>
       </c>
       <c r="AC146" t="inlineStr">
         <is>
@@ -27128,7 +27200,7 @@
         </is>
       </c>
       <c r="AB147" t="n">
-        <v>888959</v>
+        <v>-211367</v>
       </c>
       <c r="AC147" t="inlineStr">
         <is>
@@ -27309,7 +27381,7 @@
         </is>
       </c>
       <c r="AB148" t="n">
-        <v>-171891</v>
+        <v>-1380415</v>
       </c>
       <c r="AC148" t="inlineStr">
         <is>
@@ -27490,7 +27562,7 @@
         </is>
       </c>
       <c r="AB149" t="n">
-        <v>-782881</v>
+        <v>-2306565</v>
       </c>
       <c r="AC149" t="inlineStr">
         <is>
@@ -27671,7 +27743,7 @@
         </is>
       </c>
       <c r="AB150" t="n">
-        <v>24136</v>
+        <v>-1603736</v>
       </c>
       <c r="AC150" t="inlineStr">
         <is>
@@ -27852,7 +27924,7 @@
         </is>
       </c>
       <c r="AB151" t="n">
-        <v>153386</v>
+        <v>-486286</v>
       </c>
       <c r="AC151" t="inlineStr">
         <is>
@@ -28033,7 +28105,7 @@
         </is>
       </c>
       <c r="AB152" t="n">
-        <v>129576</v>
+        <v>649764</v>
       </c>
       <c r="AC152" t="inlineStr">
         <is>
@@ -28214,7 +28286,7 @@
         </is>
       </c>
       <c r="AB153" t="n">
-        <v>-1124462</v>
+        <v>459716</v>
       </c>
       <c r="AC153" t="inlineStr">
         <is>
@@ -28395,7 +28467,7 @@
         </is>
       </c>
       <c r="AB154" t="n">
-        <v>-1361910</v>
+        <v>1130872</v>
       </c>
       <c r="AC154" t="inlineStr">
         <is>
@@ -28576,7 +28648,7 @@
         </is>
       </c>
       <c r="AB155" t="n">
-        <v>-1653260</v>
+        <v>1042956</v>
       </c>
       <c r="AC155" t="inlineStr">
         <is>
@@ -28757,7 +28829,7 @@
         </is>
       </c>
       <c r="AB156" t="n">
-        <v>-503410</v>
+        <v>2000733</v>
       </c>
       <c r="AC156" t="inlineStr">
         <is>
@@ -28938,7 +29010,7 @@
         </is>
       </c>
       <c r="AB157" t="n">
-        <v>722238</v>
+        <v>2682281</v>
       </c>
       <c r="AC157" t="inlineStr">
         <is>
@@ -29127,7 +29199,7 @@
         </is>
       </c>
       <c r="AB158" t="n">
-        <v>12525225</v>
+        <v>59807758</v>
       </c>
       <c r="AC158" t="inlineStr">
         <is>
@@ -29316,7 +29388,7 @@
         </is>
       </c>
       <c r="AB159" t="n">
-        <v>12942610</v>
+        <v>59850892</v>
       </c>
       <c r="AC159" t="inlineStr">
         <is>
@@ -29505,7 +29577,7 @@
         </is>
       </c>
       <c r="AB160" t="n">
-        <v>11299913</v>
+        <v>79766199</v>
       </c>
       <c r="AC160" t="inlineStr">
         <is>
@@ -29694,7 +29766,7 @@
         </is>
       </c>
       <c r="AB161" t="n">
-        <v>10909762</v>
+        <v>57901353</v>
       </c>
       <c r="AC161" t="inlineStr">
         <is>
@@ -29883,7 +29955,7 @@
         </is>
       </c>
       <c r="AB162" t="n">
-        <v>-11700654</v>
+        <v>58766765</v>
       </c>
       <c r="AC162" t="inlineStr">
         <is>
@@ -30072,7 +30144,7 @@
         </is>
       </c>
       <c r="AB163" t="n">
-        <v>34547077</v>
+        <v>79578015</v>
       </c>
       <c r="AC163" t="inlineStr">
         <is>
@@ -30261,7 +30333,7 @@
         </is>
       </c>
       <c r="AB164" t="n">
-        <v>36372771</v>
+        <v>59085017</v>
       </c>
       <c r="AC164" t="inlineStr">
         <is>
@@ -30450,7 +30522,7 @@
         </is>
       </c>
       <c r="AB165" t="n">
-        <v>58608936</v>
+        <v>81958707</v>
       </c>
       <c r="AC165" t="inlineStr">
         <is>
@@ -30639,7 +30711,7 @@
         </is>
       </c>
       <c r="AB166" t="n">
-        <v>33919209</v>
+        <v>33825891</v>
       </c>
       <c r="AC166" t="inlineStr">
         <is>
@@ -30820,7 +30892,7 @@
         </is>
       </c>
       <c r="AB167" t="n">
-        <v>10618820</v>
+        <v>11316680</v>
       </c>
       <c r="AC167" t="inlineStr">
         <is>
@@ -31001,7 +31073,7 @@
         </is>
       </c>
       <c r="AB168" t="n">
-        <v>11858483</v>
+        <v>-12124042</v>
       </c>
       <c r="AC168" t="inlineStr">
         <is>
@@ -31182,7 +31254,7 @@
         </is>
       </c>
       <c r="AB169" t="n">
-        <v>11111729</v>
+        <v>-8709384</v>
       </c>
       <c r="AC169" t="inlineStr">
         <is>
@@ -31363,7 +31435,7 @@
         </is>
       </c>
       <c r="AB170" t="n">
-        <v>-760804</v>
+        <v>12244944</v>
       </c>
       <c r="AC170" t="inlineStr">
         <is>
@@ -31544,7 +31616,7 @@
         </is>
       </c>
       <c r="AB171" t="n">
-        <v>-6524999</v>
+        <v>9269082</v>
       </c>
       <c r="AC171" t="inlineStr">
         <is>
@@ -31725,7 +31797,7 @@
         </is>
       </c>
       <c r="AB172" t="n">
-        <v>-4685710</v>
+        <v>13766802</v>
       </c>
       <c r="AC172" t="inlineStr">
         <is>
@@ -31906,7 +31978,7 @@
         </is>
       </c>
       <c r="AB173" t="n">
-        <v>13536383</v>
+        <v>14117975</v>
       </c>
       <c r="AC173" t="inlineStr">
         <is>
@@ -32087,7 +32159,7 @@
         </is>
       </c>
       <c r="AB174" t="n">
-        <v>10830669</v>
+        <v>17060733</v>
       </c>
       <c r="AC174" t="inlineStr">
         <is>
@@ -32268,7 +32340,7 @@
         </is>
       </c>
       <c r="AB175" t="n">
-        <v>15314865</v>
+        <v>16850475</v>
       </c>
       <c r="AC175" t="inlineStr">
         <is>
@@ -32449,7 +32521,7 @@
         </is>
       </c>
       <c r="AB176" t="n">
-        <v>-530635</v>
+        <v>-603536</v>
       </c>
       <c r="AC176" t="inlineStr">
         <is>
@@ -32630,7 +32702,7 @@
         </is>
       </c>
       <c r="AB177" t="n">
-        <v>4963412</v>
+        <v>5375342</v>
       </c>
       <c r="AC177" t="inlineStr">
         <is>
@@ -32811,7 +32883,7 @@
         </is>
       </c>
       <c r="AB178" t="n">
-        <v>3137647</v>
+        <v>893129</v>
       </c>
       <c r="AC178" t="inlineStr">
         <is>
@@ -32992,7 +33064,7 @@
         </is>
       </c>
       <c r="AB179" t="n">
-        <v>1112227</v>
+        <v>-862034</v>
       </c>
       <c r="AC179" t="inlineStr">
         <is>
@@ -33173,7 +33245,7 @@
         </is>
       </c>
       <c r="AB180" t="n">
-        <v>1266652</v>
+        <v>1305964</v>
       </c>
       <c r="AC180" t="inlineStr">
         <is>
@@ -33354,7 +33426,7 @@
         </is>
       </c>
       <c r="AB181" t="n">
-        <v>-1602037</v>
+        <v>4354935</v>
       </c>
       <c r="AC181" t="inlineStr">
         <is>
@@ -33535,7 +33607,7 @@
         </is>
       </c>
       <c r="AB182" t="n">
-        <v>-12654767</v>
+        <v>-39665679</v>
       </c>
       <c r="AC182" t="inlineStr">
         <is>
@@ -33716,7 +33788,7 @@
         </is>
       </c>
       <c r="AB183" t="n">
-        <v>-9016417</v>
+        <v>-25078211</v>
       </c>
       <c r="AC183" t="inlineStr">
         <is>
@@ -33897,7 +33969,7 @@
         </is>
       </c>
       <c r="AB184" t="n">
-        <v>-21911877</v>
+        <v>-37186836</v>
       </c>
       <c r="AC184" t="inlineStr">
         <is>
@@ -34078,7 +34150,7 @@
         </is>
       </c>
       <c r="AB185" t="n">
-        <v>-5016866</v>
+        <v>-34563625</v>
       </c>
       <c r="AC185" t="inlineStr">
         <is>
@@ -34259,7 +34331,7 @@
         </is>
       </c>
       <c r="AB186" t="n">
-        <v>-20465510</v>
+        <v>-13705848</v>
       </c>
       <c r="AC186" t="inlineStr">
         <is>
@@ -34440,7 +34512,7 @@
         </is>
       </c>
       <c r="AB187" t="n">
-        <v>-7781144</v>
+        <v>-20784327</v>
       </c>
       <c r="AC187" t="inlineStr">
         <is>
@@ -34621,7 +34693,7 @@
         </is>
       </c>
       <c r="AB188" t="n">
-        <v>-21994046</v>
+        <v>-41737289</v>
       </c>
       <c r="AC188" t="inlineStr">
         <is>
@@ -34802,7 +34874,7 @@
         </is>
       </c>
       <c r="AB189" t="n">
-        <v>4403716</v>
+        <v>-27781777</v>
       </c>
       <c r="AC189" t="inlineStr">
         <is>
@@ -34983,7 +35055,7 @@
         </is>
       </c>
       <c r="AB190" t="n">
-        <v>-7493815</v>
+        <v>-42097144</v>
       </c>
       <c r="AC190" t="inlineStr">
         <is>
@@ -35164,7 +35236,7 @@
         </is>
       </c>
       <c r="AB191" t="n">
-        <v>-7552713</v>
+        <v>-59247831</v>
       </c>
       <c r="AC191" t="inlineStr">
         <is>
@@ -35345,7 +35417,7 @@
         </is>
       </c>
       <c r="AB192" t="n">
-        <v>2355946</v>
+        <v>-39095697</v>
       </c>
       <c r="AC192" t="inlineStr">
         <is>
@@ -35526,7 +35598,7 @@
         </is>
       </c>
       <c r="AB193" t="n">
-        <v>-5509368</v>
+        <v>-3187408</v>
       </c>
       <c r="AC193" t="inlineStr">
         <is>
@@ -35715,7 +35787,7 @@
         </is>
       </c>
       <c r="AB194" t="n">
-        <v>-162162883</v>
+        <v>202901385</v>
       </c>
       <c r="AC194" t="inlineStr">
         <is>
@@ -35904,7 +35976,7 @@
         </is>
       </c>
       <c r="AB195" t="n">
-        <v>7118026</v>
+        <v>368402839</v>
       </c>
       <c r="AC195" t="inlineStr">
         <is>
@@ -36093,7 +36165,7 @@
         </is>
       </c>
       <c r="AB196" t="n">
-        <v>124582668</v>
+        <v>418703297</v>
       </c>
       <c r="AC196" t="inlineStr">
         <is>
@@ -36282,7 +36354,7 @@
         </is>
       </c>
       <c r="AB197" t="n">
-        <v>122501291</v>
+        <v>400760255</v>
       </c>
       <c r="AC197" t="inlineStr">
         <is>
@@ -36471,7 +36543,7 @@
         </is>
       </c>
       <c r="AB198" t="n">
-        <v>250779057</v>
+        <v>399552226</v>
       </c>
       <c r="AC198" t="inlineStr">
         <is>
@@ -36660,7 +36732,7 @@
         </is>
       </c>
       <c r="AB199" t="n">
-        <v>262908814</v>
+        <v>336559405</v>
       </c>
       <c r="AC199" t="inlineStr">
         <is>
@@ -36849,7 +36921,7 @@
         </is>
       </c>
       <c r="AB200" t="n">
-        <v>242562977</v>
+        <v>254278609</v>
       </c>
       <c r="AC200" t="inlineStr">
         <is>
@@ -37038,7 +37110,7 @@
         </is>
       </c>
       <c r="AB201" t="n">
-        <v>110505756</v>
+        <v>114561571</v>
       </c>
       <c r="AC201" t="inlineStr">
         <is>
@@ -37227,7 +37299,7 @@
         </is>
       </c>
       <c r="AB202" t="n">
-        <v>31211815</v>
+        <v>38677348</v>
       </c>
       <c r="AC202" t="inlineStr">
         <is>
@@ -37408,7 +37480,7 @@
         </is>
       </c>
       <c r="AB203" t="n">
-        <v>35695987</v>
+        <v>-30288145</v>
       </c>
       <c r="AC203" t="inlineStr">
         <is>
@@ -37589,7 +37661,7 @@
         </is>
       </c>
       <c r="AB204" t="n">
-        <v>38267413</v>
+        <v>-27420456</v>
       </c>
       <c r="AC204" t="inlineStr">
         <is>
@@ -37770,7 +37842,7 @@
         </is>
       </c>
       <c r="AB205" t="n">
-        <v>42438776</v>
+        <v>-69255249</v>
       </c>
       <c r="AC205" t="inlineStr">
         <is>
@@ -37959,7 +38031,7 @@
         </is>
       </c>
       <c r="AB206" t="n">
-        <v>453855</v>
+        <v>332307</v>
       </c>
       <c r="AC206" t="inlineStr">
         <is>
@@ -38148,7 +38220,7 @@
         </is>
       </c>
       <c r="AB207" t="n">
-        <v>-23245</v>
+        <v>283758</v>
       </c>
       <c r="AC207" t="inlineStr">
         <is>
@@ -38337,7 +38409,7 @@
         </is>
       </c>
       <c r="AB208" t="n">
-        <v>356719</v>
+        <v>315678</v>
       </c>
       <c r="AC208" t="inlineStr">
         <is>
@@ -38526,7 +38598,7 @@
         </is>
       </c>
       <c r="AB209" t="n">
-        <v>-359142</v>
+        <v>-319724</v>
       </c>
       <c r="AC209" t="inlineStr">
         <is>
@@ -38715,7 +38787,7 @@
         </is>
       </c>
       <c r="AB210" t="n">
-        <v>1696885</v>
+        <v>529793</v>
       </c>
       <c r="AC210" t="inlineStr">
         <is>
@@ -38896,7 +38968,7 @@
         </is>
       </c>
       <c r="AB211" t="n">
-        <v>504989</v>
+        <v>-407203</v>
       </c>
       <c r="AC211" t="inlineStr">
         <is>
@@ -39077,7 +39149,7 @@
         </is>
       </c>
       <c r="AB212" t="n">
-        <v>237594</v>
+        <v>-763449</v>
       </c>
       <c r="AC212" t="inlineStr">
         <is>
@@ -39258,7 +39330,7 @@
         </is>
       </c>
       <c r="AB213" t="n">
-        <v>-1389882</v>
+        <v>-1089816</v>
       </c>
       <c r="AC213" t="inlineStr">
         <is>
@@ -39411,7 +39483,7 @@
       </c>
       <c r="S214" t="inlineStr">
         <is>
-          <t>-0.54</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="T214" t="inlineStr">
@@ -39439,7 +39511,7 @@
         </is>
       </c>
       <c r="AB214" t="n">
-        <v>-546030</v>
+        <v>-873109</v>
       </c>
       <c r="AC214" t="inlineStr">
         <is>
@@ -39620,7 +39692,7 @@
         </is>
       </c>
       <c r="AB215" t="n">
-        <v>-198176</v>
+        <v>-736848</v>
       </c>
       <c r="AC215" t="inlineStr">
         <is>
@@ -39801,7 +39873,7 @@
         </is>
       </c>
       <c r="AB216" t="n">
-        <v>222790</v>
+        <v>280209</v>
       </c>
       <c r="AC216" t="inlineStr">
         <is>
@@ -39982,7 +40054,7 @@
         </is>
       </c>
       <c r="AB217" t="n">
-        <v>-366162</v>
+        <v>-8623596</v>
       </c>
       <c r="AC217" t="inlineStr">
         <is>
@@ -40125,22 +40197,22 @@
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R218" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="S218" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="T218" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="U218" t="n">
@@ -40163,7 +40235,7 @@
         </is>
       </c>
       <c r="AB218" t="n">
-        <v>20045879</v>
+        <v>59383626</v>
       </c>
       <c r="AC218" t="inlineStr">
         <is>
@@ -40304,7 +40376,7 @@
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R219" t="inlineStr">
@@ -40314,12 +40386,12 @@
       </c>
       <c r="S219" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="T219" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="U219" t="n">
@@ -40342,7 +40414,7 @@
         </is>
       </c>
       <c r="AB219" t="n">
-        <v>18503544</v>
+        <v>32629104</v>
       </c>
       <c r="AC219" t="inlineStr">
         <is>
@@ -40483,7 +40555,7 @@
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R220" t="inlineStr">
@@ -40493,12 +40565,12 @@
       </c>
       <c r="S220" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="T220" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="U220" t="n">
@@ -40521,7 +40593,7 @@
         </is>
       </c>
       <c r="AB220" t="n">
-        <v>14549825</v>
+        <v>-23577991</v>
       </c>
       <c r="AC220" t="inlineStr">
         <is>
@@ -40662,7 +40734,7 @@
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R221" t="inlineStr">
@@ -40672,12 +40744,12 @@
       </c>
       <c r="S221" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="T221" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="U221" t="n">
@@ -40700,7 +40772,7 @@
         </is>
       </c>
       <c r="AB221" t="n">
-        <v>25768675</v>
+        <v>0</v>
       </c>
       <c r="AC221" t="inlineStr">
         <is>
@@ -40841,22 +40913,22 @@
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R222" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S222" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="T222" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="U222" t="n">
@@ -40879,7 +40951,7 @@
         </is>
       </c>
       <c r="AB222" t="n">
-        <v>3520428</v>
+        <v>0</v>
       </c>
       <c r="AC222" t="inlineStr">
         <is>
@@ -41020,22 +41092,22 @@
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R223" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S223" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="T223" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="U223" t="n">
@@ -41058,7 +41130,7 @@
         </is>
       </c>
       <c r="AB223" t="n">
-        <v>11558672</v>
+        <v>0</v>
       </c>
       <c r="AC223" t="inlineStr">
         <is>
@@ -41199,22 +41271,22 @@
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R224" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S224" t="inlineStr">
         <is>
+          <t>-0.25</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
           <t>-0.27</t>
-        </is>
-      </c>
-      <c r="T224" t="inlineStr">
-        <is>
-          <t>-0.28</t>
         </is>
       </c>
       <c r="U224" t="n">
@@ -41237,7 +41309,7 @@
         </is>
       </c>
       <c r="AB224" t="n">
-        <v>13569072</v>
+        <v>0</v>
       </c>
       <c r="AC224" t="inlineStr">
         <is>
@@ -41373,27 +41445,27 @@
       </c>
       <c r="P225" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R225" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S225" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="T225" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="U225" t="n">
@@ -41416,7 +41488,7 @@
         </is>
       </c>
       <c r="AB225" t="n">
-        <v>10605132</v>
+        <v>0</v>
       </c>
       <c r="AC225" t="inlineStr">
         <is>
@@ -41552,27 +41624,27 @@
       </c>
       <c r="P226" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R226" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S226" t="inlineStr">
         <is>
+          <t>-0.27</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
           <t>-0.28</t>
-        </is>
-      </c>
-      <c r="T226" t="inlineStr">
-        <is>
-          <t>-0.29</t>
         </is>
       </c>
       <c r="U226" t="n">
@@ -41595,7 +41667,7 @@
         </is>
       </c>
       <c r="AB226" t="n">
-        <v>-49686488</v>
+        <v>0</v>
       </c>
       <c r="AC226" t="inlineStr">
         <is>
@@ -41664,7 +41736,7 @@
       </c>
       <c r="AR226" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AS226" t="inlineStr">
@@ -41731,27 +41803,27 @@
       </c>
       <c r="P227" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R227" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S227" t="inlineStr">
         <is>
+          <t>-0.27</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
           <t>-0.29</t>
-        </is>
-      </c>
-      <c r="T227" t="inlineStr">
-        <is>
-          <t>-0.30</t>
         </is>
       </c>
       <c r="U227" t="n">
@@ -41843,7 +41915,7 @@
       </c>
       <c r="AR227" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AS227" t="inlineStr">
@@ -41910,27 +41982,27 @@
       </c>
       <c r="P228" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="R228" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S228" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="T228" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="U228" t="n">
@@ -42022,7 +42094,7 @@
       </c>
       <c r="AR228" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AS228" t="inlineStr">
@@ -42054,11 +42126,11 @@
         <v>0.85</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>6.45</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>100</v>
+        <v>1.83</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -42072,7 +42144,7 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="N229" t="n">
@@ -42085,22 +42157,22 @@
       </c>
       <c r="P229" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S229" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="T229" t="inlineStr">

--- a/Result/checksun/貿易百貨.xlsx
+++ b/Result/checksun/貿易百貨.xlsx
@@ -725,13 +725,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -942,13 +942,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1373,16 +1373,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1593,13 +1593,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1807,20 +1807,20 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -2027,17 +2027,17 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -2458,20 +2458,20 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -3108,13 +3108,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3339,10 +3339,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -3555,20 +3555,20 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -3774,16 +3774,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -3993,20 +3993,20 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="D17" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -4212,16 +4212,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -4431,20 +4431,20 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -4650,20 +4650,20 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -4869,20 +4869,20 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -5522,20 +5522,20 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -5746,10 +5746,10 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
         <v>2</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5960,13 +5960,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
+        <v>-2</v>
+      </c>
+      <c r="B26" t="n">
         <v>1</v>
       </c>
-      <c r="B26" t="n">
-        <v>2</v>
-      </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -6177,13 +6177,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="n">
         <v>1</v>
       </c>
-      <c r="B27" t="n">
-        <v>2</v>
-      </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -6394,13 +6394,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="n">
         <v>1</v>
       </c>
-      <c r="B28" t="n">
-        <v>2</v>
-      </c>
       <c r="C28" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -6611,16 +6611,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6828,20 +6828,20 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -7045,20 +7045,20 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -7262,20 +7262,20 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -7915,10 +7915,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D35" t="n">
-        <v>-41</v>
+        <v>-20</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -8120,16 +8120,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -8339,20 +8339,20 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>-13</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -8558,16 +8558,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -8780,13 +8780,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -8999,13 +8999,13 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -9216,17 +9216,17 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D41" t="n">
-        <v>31</v>
+        <v>-12</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -9428,20 +9428,20 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -9645,20 +9645,20 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -10301,7 +10301,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -10518,13 +10518,13 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -10735,10 +10735,10 @@
         <v>-1</v>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -10949,13 +10949,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -11169,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -11386,13 +11386,13 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -11600,20 +11600,20 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -11820,17 +11820,17 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -12034,16 +12034,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -12681,13 +12681,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -12900,13 +12900,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -13119,13 +13119,13 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -13344,7 +13344,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -13557,7 +13557,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -13776,20 +13776,20 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -14220,7 +14220,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -14433,13 +14433,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -15086,20 +15086,20 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -15303,13 +15303,13 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -15520,20 +15520,20 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -15740,7 +15740,7 @@
         <v>3</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -15957,7 +15957,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
         <v>2</v>
@@ -16174,17 +16174,17 @@
         <v>1</v>
       </c>
       <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
         <v>1</v>
-      </c>
-      <c r="C73" t="n">
-        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>-1</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -16388,16 +16388,16 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -16608,17 +16608,17 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -16822,16 +16822,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -17472,13 +17472,13 @@
         <v>2</v>
       </c>
       <c r="B79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -17688,16 +17688,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
+        <v>0</v>
+      </c>
+      <c r="B80" t="n">
         <v>2</v>
       </c>
-      <c r="B80" t="n">
-        <v>6</v>
-      </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -17910,13 +17910,13 @@
         <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -18126,16 +18126,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C82" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>1</v>
       </c>
       <c r="B83" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -18567,17 +18567,17 @@
         <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C84" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -18783,20 +18783,20 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="B85" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C85" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="D85" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -19005,17 +19005,17 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -19221,20 +19221,20 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -19874,16 +19874,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B90" t="n">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -20105,16 +20105,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -20335,13 +20335,13 @@
         <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C92" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -20559,16 +20559,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
+        <v>0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>23</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D93" t="n">
         <v>2</v>
-      </c>
-      <c r="B93" t="n">
-        <v>32</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -20786,20 +20786,20 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B94" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D94" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -21013,20 +21013,20 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B95" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -21240,20 +21240,20 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B96" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>36</v>
+        <v>-5</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -21470,17 +21470,17 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -21694,20 +21694,20 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -22374,17 +22374,17 @@
         <v>4</v>
       </c>
       <c r="B101" t="n">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>7</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -22588,20 +22588,20 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D102" t="n">
-        <v>-1</v>
+        <v>-25</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
@@ -22808,17 +22808,17 @@
         <v>1</v>
       </c>
       <c r="B103" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C103" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
@@ -23022,20 +23022,20 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B104" t="n">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C104" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
@@ -23239,20 +23239,20 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B105" t="n">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D105" t="n">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
@@ -23459,17 +23459,17 @@
         <v>4</v>
       </c>
       <c r="B106" t="n">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="C106" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D106" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
@@ -23673,20 +23673,20 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B107" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D107" t="n">
-        <v>70</v>
+        <v>-27</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
@@ -23890,20 +23890,20 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
@@ -24107,20 +24107,20 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -24754,20 +24754,20 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B112" t="n">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D112" t="n">
-        <v>-8</v>
+        <v>5</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
@@ -24973,16 +24973,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -25195,17 +25195,17 @@
         <v>0</v>
       </c>
       <c r="B114" t="n">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
@@ -25414,17 +25414,17 @@
         <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="C115" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
@@ -25630,20 +25630,20 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>-20</v>
+        <v>-7</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
@@ -25852,13 +25852,13 @@
         <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -26071,17 +26071,17 @@
         <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>150</v>
+        <v>-9</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
@@ -26290,17 +26290,17 @@
         <v>0</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
@@ -26506,20 +26506,20 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
@@ -27162,17 +27162,17 @@
         <v>-2</v>
       </c>
       <c r="B123" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C123" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D123" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F123" t="inlineStr"/>
@@ -27376,16 +27376,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
+        <v>-1</v>
+      </c>
+      <c r="B124" t="n">
         <v>3</v>
       </c>
-      <c r="B124" t="n">
-        <v>8</v>
-      </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -27593,20 +27593,20 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B125" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C125" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="D125" t="n">
         <v>-1</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
@@ -27810,20 +27810,20 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B126" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C126" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
@@ -28027,20 +28027,20 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B127" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C127" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D127" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
@@ -28244,20 +28244,20 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="B128" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C128" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D128" t="n">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
@@ -28461,20 +28461,20 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-19</v>
+        <v>-5</v>
       </c>
       <c r="B129" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C129" t="n">
-        <v>-19</v>
+        <v>2</v>
       </c>
       <c r="D129" t="n">
-        <v>33</v>
+        <v>-5</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
@@ -28678,20 +28678,20 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
@@ -28895,20 +28895,20 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
@@ -29542,20 +29542,20 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B134" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C134" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="D134" t="n">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -29773,20 +29773,20 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="B135" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C135" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D135" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
@@ -30000,20 +30000,20 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B136" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D136" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F136" t="inlineStr"/>
@@ -30227,13 +30227,13 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B137" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C137" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D137" t="n">
         <v>3</v>
@@ -30454,20 +30454,20 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
+        <v>4</v>
+      </c>
+      <c r="B138" t="n">
+        <v>24</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D138" t="n">
         <v>6</v>
       </c>
-      <c r="B138" t="n">
-        <v>30</v>
-      </c>
-      <c r="C138" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1</v>
-      </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
@@ -30681,16 +30681,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B139" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C139" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -30903,17 +30903,17 @@
         <v>0</v>
       </c>
       <c r="B140" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D140" t="n">
-        <v>24</v>
+        <v>-3</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
@@ -31117,20 +31117,20 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
@@ -31337,17 +31337,17 @@
         <v>0</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
@@ -31981,20 +31981,20 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B145" t="n">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="C145" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F145" t="inlineStr"/>
@@ -32203,17 +32203,17 @@
         <v>0</v>
       </c>
       <c r="B146" t="n">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F146" t="inlineStr"/>
@@ -32422,17 +32422,17 @@
         <v>0</v>
       </c>
       <c r="B147" t="n">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
@@ -32641,13 +32641,13 @@
         <v>0</v>
       </c>
       <c r="B148" t="n">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -32860,10 +32860,10 @@
         <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D149" t="n">
         <v>4</v>
@@ -33076,16 +33076,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B150" t="n">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -33295,20 +33295,20 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B151" t="n">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="C151" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
@@ -33517,17 +33517,17 @@
         <v>0</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -33733,20 +33733,20 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -34389,13 +34389,13 @@
         <v>0</v>
       </c>
       <c r="B156" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C156" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -34605,16 +34605,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B157" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C157" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -34824,20 +34824,20 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B158" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C158" t="n">
         <v>-1</v>
       </c>
       <c r="D158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
@@ -35043,16 +35043,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B159" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D159" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -35262,16 +35262,16 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B160" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D160" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -35481,20 +35481,20 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
+        <v>5</v>
+      </c>
+      <c r="B161" t="n">
+        <v>10</v>
+      </c>
+      <c r="C161" t="n">
         <v>3</v>
       </c>
-      <c r="B161" t="n">
-        <v>20</v>
-      </c>
-      <c r="C161" t="n">
-        <v>2</v>
-      </c>
       <c r="D161" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
@@ -35700,20 +35700,20 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B162" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D162" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
@@ -35922,13 +35922,13 @@
         <v>0</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -36138,20 +36138,20 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -36791,16 +36791,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B167" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C167" t="n">
+        <v>2</v>
+      </c>
+      <c r="D167" t="n">
         <v>-1</v>
-      </c>
-      <c r="D167" t="n">
-        <v>-2</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -37010,16 +37010,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B168" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -37229,16 +37229,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B169" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C169" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -37448,16 +37448,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B170" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C170" t="n">
         <v>-1</v>
       </c>
       <c r="D170" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -37667,16 +37667,16 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B171" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C171" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D171" t="n">
         <v>2</v>
-      </c>
-      <c r="D171" t="n">
-        <v>-1</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -37886,20 +37886,20 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B172" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C172" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D172" t="n">
         <v>-1</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
@@ -38105,20 +38105,20 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="B173" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C173" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D173" t="n">
-        <v>23</v>
+        <v>-5</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -38327,17 +38327,17 @@
         <v>0</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -38543,20 +38543,20 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -39196,13 +39196,13 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
+        <v>1</v>
+      </c>
+      <c r="B178" t="n">
+        <v>26</v>
+      </c>
+      <c r="C178" t="n">
         <v>2</v>
-      </c>
-      <c r="B178" t="n">
-        <v>38</v>
-      </c>
-      <c r="C178" t="n">
-        <v>0</v>
       </c>
       <c r="D178" t="n">
         <v>-2</v>
@@ -39415,13 +39415,13 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B179" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D179" t="n">
         <v>-3</v>
@@ -39634,20 +39634,20 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B180" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C180" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D180" t="n">
-        <v>-8</v>
+        <v>13</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
@@ -39853,20 +39853,20 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B181" t="n">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D181" t="n">
-        <v>-12</v>
+        <v>-1</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F181" t="inlineStr"/>
@@ -40072,20 +40072,20 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B182" t="n">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D182" t="n">
-        <v>-42</v>
+        <v>-20</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
@@ -40291,20 +40291,20 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B183" t="n">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="C183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D183" t="n">
-        <v>-2</v>
+        <v>-11</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -40510,20 +40510,20 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B184" t="n">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="C184" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="D184" t="n">
-        <v>107</v>
+        <v>-42</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -40729,20 +40729,20 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -40948,20 +40948,20 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -41604,13 +41604,13 @@
         <v>0</v>
       </c>
       <c r="B189" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C189" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -41832,16 +41832,16 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B190" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C190" t="n">
         <v>-1</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -42059,20 +42059,20 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B191" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C191" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D191" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F191" t="inlineStr"/>
@@ -42286,16 +42286,16 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B192" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -42505,20 +42505,20 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B193" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C193" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
@@ -42727,13 +42727,13 @@
         <v>7</v>
       </c>
       <c r="B194" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C194" t="n">
+        <v>5</v>
+      </c>
+      <c r="D194" t="n">
         <v>7</v>
-      </c>
-      <c r="D194" t="n">
-        <v>6</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -42943,20 +42943,20 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B195" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D195" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F195" t="inlineStr"/>
@@ -43162,20 +43162,20 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F196" t="inlineStr"/>
@@ -43381,20 +43381,20 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F197" t="inlineStr"/>
@@ -44034,20 +44034,20 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B200" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C200" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D200" t="n">
         <v>1</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -44255,10 +44255,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B201" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
@@ -44472,16 +44472,16 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B202" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C202" t="n">
         <v>-1</v>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -44689,16 +44689,16 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B203" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D203" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -44906,16 +44906,16 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B204" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D204" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -45123,20 +45123,20 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B205" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C205" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F205" t="inlineStr"/>
@@ -45343,17 +45343,17 @@
         <v>-2</v>
       </c>
       <c r="B206" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C206" t="n">
         <v>-2</v>
       </c>
       <c r="D206" t="n">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F206" t="inlineStr"/>
@@ -45560,17 +45560,17 @@
         <v>0</v>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F207" t="inlineStr"/>
@@ -45774,20 +45774,20 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
